--- a/PressReleases_Scraper/results.xlsx
+++ b/PressReleases_Scraper/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G761"/>
+  <dimension ref="A1:G784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31221,6 +31221,948 @@
         </is>
       </c>
     </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>761</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>'25년도 금융정보보호협의회 정기총회 개최</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>2025.12.16</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208160&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>251215_(보도자료) 25년도 금융정보보호협의회 정기총회 개최.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=8b14e287169c49fabae8cb20aaf6c4f2&amp;fileSn=1&amp;bbsId=), 251215_(보도자료) 25년도 금융정보보호협의회 정기총회 개최.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=8b14e287169c49fabae8cb20aaf6c4f2&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>디지털금융총괄국</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>□ 금융정보보호협의회는 금융감독원 이세훈 수석부원장, 금융보안원 박상원 원장, 금융회사 정보보호최고책임자(CISO) 등 약 210명이 참석한 가운데 제23차 정기총회를 개최*
+* '25.12.16.(화), 10:30~13:10, 여의도 콘래드 서울 호텔
+ㅇ 당일 총회에서는 금융감독원 이세훈 수석부원장의 개회사, 금융보안원 박상원 원장의 환영사에 이어, 고려대학교 이상근 교수 등의 특별강연이 있었으며,
+ㅇ 금융보안 업무를 성실히 수행한 금융회사 유공직원 12명에 대해 금융감독원장상*(3명), 금융정보보호협의회 위원장상(4명), 금융보안원장상(5명)을 수여하였음
+* 대신증권 정현승 팀장, 코리안리재보험 문광석 파트장, NH투자증권 임혁 차장
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>762</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>26년부터 「네트워크 회계법인과의 비감사용역 계약 현황」이 정보이용자에게 제공될 수 있도록 사업보고서 공시가 확대됩니다</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>2025.12.16</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208158&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>251215_(보도자료) 26년부터 「네트워크 회계법인과의 비감사용역 계약 현황」이 정보이용자에게 제공될 수 있도록 사업보고서 공시가 확대됩니다.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=048cf65db481404faf04f61d142b7e9e&amp;fileSn=1&amp;bbsId=), 251215_(보도자료) 26년부터 「네트워크 회계법인과의 비감사용역 계약 현황」이 정보이용자에게 제공될 수 있도록 사업보고서 공시가 확대됩니다.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=048cf65db481404faf04f61d142b7e9e&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>감사인감리국</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>◈ '26년부터 회사는 사업보고서에 감사인 뿐만 아니라 네트워크 회계법인*과의 비감사용역 계약 체결 현황도 기재해야 합니다.
+* 네트워크 회계법인:감사인과 별개로 운영되더라도 브랜드 명칭을 공유하는 컨설팅 법인 등
+ㅇ '24.12월 「공인회계사윤리기준」에서 네트워크 회계법인 정의가 개정(범위 확대)됨에 따라
+- 감사인과 별개로 운영되지만 브랜드 명칭을 공유하는 컨설팅 법인 등도 감사대상회사에 대하여 독립성 준수 의무가 발생하였습니다.
+ㅇ 네트워크 회계법인이 감사대상회사에게 제공하는 비감사용역 계약체결 현황도 정보이용자에게 공개됨으로써,
+- 감사인의 외부감사 업무 수행시 독립성이 제고되고 회계투명성이 개선될 것으로 기대됩니다.
+◈ 회사와 감사인은 공시 대상 네트워크 회계법인을 면밀히 확인하고, 감사인의 독립성이 훼손되지 않도록 각별히 유의해야 합니다.
+ㅇ 회사의 내부감사기구는 네트워크 회계법인과도 비감사용역 계약 체결 전에 감사인의 독립성 준수 여부를 검토해야 합니다.
+ㅇ 감사인은 비감사용역(네트워크 회계법인의 계약 포함)과 관련된 독립성 이슈를 회사의 내부감사기구와 협의해야 합니다.
+◈ 금융감독원은 감사인 감리 등을 통해 감사인의 독립성 준수 및 감사 품질 관리 등에 대한 점검을 강화할 예정입니다.
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>763</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>금융감독원, 대출성상품 판매대리,중개법인 내부통제 강화를 위한 워크숍 개최</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>2025.12.15</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208145&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>251215_(보도자료) 금융감독원, 대출성상품 판매대리 중개법인 내부통제 강화를 위한 워크숍 개최.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=de839fae690044f4b0e068706db62b51&amp;fileSn=1&amp;bbsId=), 251215_(보도자료) 금융감독원, 대출성상품 판매대리 중개법인 내부통제 강화를 위한 워크숍 개최.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=de839fae690044f4b0e068706db62b51&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>금융소비자보호총괄국/은행검사1국</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>□ 금융감독원은 '25.12.15.(목) 대출성 상품 판매대리,중개법인(이하 '대출중개법인') 등을 대상으로 내부통제 역량 강화 등을 위한 워크숍을 개최
+ㅇ 동 워크숍에는 6개 금융업협회 관계자 및 대출중개법인의 금융소비자보호총괄책임자 또는 내부통제 담당자 등 190여명이 참석
+ㅇ 워크숍을 통해 법규준수 관련 최근 주요 이슈사항과 검사결과 미흡 사례 등을 공유하고 소비자보호 중심의 내부통제 강화를 당부
+&lt;대출성상품 판매대리,중개법인 워크숍 개요&gt;
+ㅁ 일시 : '25.12.15.(월) 15:00～16:15
+ㅁ 장소 : 금융감독원 2층 대강당
+ㅁ 참석자 : 6개 금융업협회, 130여개 판매대리,중개법인 임직원 등 약 190명
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>764</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>이륜차보험 요율체계 합리화를 통해 배달라이더의 보험료 부담을 완화해 나가겠습니다</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>2025.12.16</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208140&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>251215_(보도자료) 이륜차보험 요율체계 합리화를 통해 배달라이더의 보험료 부담을 완화해 나가겠습니다.hwpx (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=5cbf2617dc7f415ba21461a6d1146fee&amp;fileSn=1&amp;bbsId=), 251215_(보도자료) 이륜차보험 요율체계 합리화를 통해 배달라이더의 보험료 부담을 완화해 나가겠습니다.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=5cbf2617dc7f415ba21461a6d1146fee&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>보험감독국</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>□ 금융감독원은 생계형 및 청년층 배달라이더의 보험료 부담을 완화하고, 이륜차 운전자의 소비자 권익을 강화하기 위하여,
+ㅇ 보험개발원 및 보험업계와 협업을 통해 '이륜차 보험의 요율체계 합리화'를 추진합니다.
+- 이를 통해 이륜차 보험의 ①자기신체사고 보험료 부담을 완화하고, ②시간제보험 가입 대상을 확대하는 한편, ③과거 계약의 할인등급을 승계 가능토록 하는 등 실질적인 혜택을 제공할 예정입니다.
+&lt; 개선방안 주요 내용 &gt;
+1. 배달라이더의 자기신체사고 보험료 합리화
+☞ 유상운송용 자기신체사고 보험료를 현재 대비 20~30% 인하하는 등 점진적인 합리화 추진
+2. 배달라이더 시간제보험가입대상 확대
+☞ 높은 보험료 부담 등으로 무보험 운행이 많은 청년 배달라이더(만21세 이상)도 시간제 보험을 가입 가능하도록 개선(기존 만24세 이상만 가능)
+3. 할인등급 승계제도 정비
+☞이륜차 교체 후 新계약 체결 시, 과거 계약의 할인등급 승계 허용(자동차보험과 동일)
+□ 금번 제도개선으로 배달라이더와 이륜차 교체 차주의 보험료 부담이 완화되어, 보험의 사회안전망 기능이 한층 강화될 것으로 예상됩니다.
+ㅇ 금융감독원은 향후에도 보험가입자 부담 최소화 및 권익증진을 위해 기존 제도상 불합리한 점을 지속적으로 발굴,개선해 나갈 예정입니다.
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>765</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>금융위원장 금융시장 상황 점검회의 개최</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>2025.12.15</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208139&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>251214_(보도자료) 금융위원장 금융시장 상황 점검회의 개최.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=cca1d38971154d9b956a59236356be74&amp;fileSn=1&amp;bbsId=), 251214_(보도자료) 금융위원장 금융시장 상황 점검회의 개최.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=cca1d38971154d9b956a59236356be74&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>금융시장안정국</t>
+        </is>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>2025.12.15일 금융위원회는 이억원 금융위원장 주재로 금융감독원, 금융연구원, 한국개발연구원(KDI) 및 거시경제/금융시장 전문가들과 함께 「금융시장 상황 점검회의」를 개최하여 '25년 국내외 경제/금융시장을 평가하고 향후 전망 및 리스크 요인에 대해 논의하였다.
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>766</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>「FSS 어린이 금융스쿨」 6기 참가자를 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>2025.12.15</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208116&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>251212_(보도자료) 「FSS 어린이 금융스쿨」 6기 참가자를 모집합니다.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=70b60f0a46b44a1a8145e73a94d32ea0&amp;fileSn=1&amp;bbsId=), 251212_(보도자료) 「FSS 어린이 금융스쿨」 6기 참가자를 모집합니다.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=70b60f0a46b44a1a8145e73a94d32ea0&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>금융교육국</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>◈ 금융감독원은 초등학교 고학년(4~6학년)을 대상으로 온라인 기반 8차시 교육을 제공하는 「FSS 어린이 금융스쿨」 6기 과정을 개설할 계획
+ㅇ 총 400명 이내에서 지역별로 선발할 예정이며, '25.12.15.(월) 오전 9시부터 12.23.(화) 오후 5시까지 금융감독원 「e-금융교육센터」를 통해 지원 가능
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>767</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>'25년 4분기 혁신금융서비스 지정 정기신청 개시</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>2025.12.15</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208113&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>251212_(보도자료) 25년 4분기 혁신금융서비스 지정 정기신청 개시.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=0720dd7cc6b54c0584c6b7e0491d5558&amp;fileSn=1&amp;bbsId=), 251212_(보도자료) 25년 4분기 혁신금융서비스 지정 정기신청 개시.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=0720dd7cc6b54c0584c6b7e0491d5558&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>디지털금융총괄국</t>
+        </is>
+      </c>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>- '25.12.15.(월) 09:00 ~12.31.(수) 18:00까지 홈페이지(온라인) 접수 진행
+- 금융규제 샌드박스 홈페이지 '컨설팅 신청', '지정 사례', '자주하는 질문(FAQ)' 참고
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>768</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>해외 고위험 금융투자상품 투자자 유의사항</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>2025.12.15</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208112&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>251212_(보도자료) 해외 고위험 금융투자상품 투자자 유의사항.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=4fe7e600823a4c5bae44b706e76467df&amp;fileSn=1&amp;bbsId=), 251212_(보도자료) 해외 고위험 금융투자상품 투자자 유의사항.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=4fe7e600823a4c5bae44b706e76467df&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>자본시장감독국</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>□ 해외 고위험 상품 투자자 보호방안(사전교육,모의거래)이 '25.12.15.(월) 시행되는 가운데, 개인투자자는 글로벌 금융시장 변동성 확대 국면에서 해외 고위험 상품 투자 시 과도한 위험을 부담하지 않도록 주의하시기 바랍니다.
+① 해외 파생상품은 원금 초과 손실이 발생할 수 있는 고위험 상품입니다.
+② 해외 레버리지 ETP는 단기에 큰 손실이 발생할 수 있는 고위험 상품이며, 복리효과에 유의할 필요가 있습니다.
+③ 투자자는 예상치 못한 환율 변화에 따른 손실 가능성에 유의해야 합니다.
+④ 해외 파생상품의 경우 마진콜(증거금 추가 요구)에 응하지 않거나, 장중에 시세가 급변하는 경우 투자자 동의 없이 반대매매가 실행될 수 있습니다.
+⑤ 금융회사의 과도한 이벤트,광고에 현혹되지 말고, 상품 구조 및 위험을 충분히 이해한 후에 투자해야 합니다.
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>769</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>금융감독원, 대전둔산경찰서, 자동차손해배상진흥원이 공조하여 이륜차배달원의 자동차 고의사고 적발</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>2025.12.15</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208111&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>251212_(보도자료) 금융감독원, 대전둔산경찰서, 자동차손해배상진흥원이 공조하여 이륜차배달원의 자동차 고의사고 적발.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=42cff64dfff9421bbefa5bc517cfcb22&amp;fileSn=1&amp;bbsId=), 251212_(보도자료) 금융감독원, 대전둔산경찰서, 자동차손해배상진흥원이 공조하여 이륜차배달원의 자동차 고의사고 적발.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=42cff64dfff9421bbefa5bc517cfcb22&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>보험사기대응단</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>□ 금융감독원은 자동차손해배상진흥원(이하 '자배원')과 공동 기획조사를 실시하여 이륜차배달원 A가 33건의 고의사고를 통해 총 87백만원의 보험금을 편취한 혐의를 적발하고, 경찰에 수사의뢰 하였습니다(‘25.2월).
+ㅇ 금융감독원은 자배원 등과 실무협의회*를 통해 인지된 대전지역 이륜차 고의사고 혐의자에 대한 기획조사를 실시, 수사의뢰하고
+* 금감원-자배원-전국렌터카공제조합 간 업무협약 체결('24.3.7.)에 근거
+ㅇ 대전둔산경찰서는 금감원, 자배원 공동조사 등을 바탕으로 자동차 사각지대를 악용하여 고의사고를 야기한 이륜차배달원 A를 검찰에 송치하였습니다('25.12월).
+※ 금융감독원과 자배원, 전국렌터카공제조합은 민생침해 자동차 고의사고 근절을 위한 MOU를 체결('24.3.27.)하고, 정례적으로 「실무협의회」를 운영해 왔으며, 금번 사건은 기관간 공조를 통해 보험사기 혐의를 적발한 사례입니다.
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>770</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>2025년 11월 외국인 증권투자 동향</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>2025.12.12</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208087&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>251211_(보도자료) 2025년 11월 외국인 증권투자 동향.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=434bb5f24a6548fbb276062188a719f0&amp;fileSn=1&amp;bbsId=), 251211_(보도자료) 2025년 11월 외국인 증권투자 동향.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=434bb5f24a6548fbb276062188a719f0&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>자본시장감독국</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>□ (순투자) '25.11월중 외국인은 상장주식 △13조 3,730억원을 순매도*하고, 상장채권 16조 2,540억원을 순투자**하여, 총 2조 8,810억원 순투자
+* 유가증권시장 △13조 4,910억원 순매도, 코스닥시장 1,180억원 순매수
+** [매수(26.4조원) - 매도(8.8조원)] - 만기상환(1.4조원) = 16.2조원
+ㅇ 주식 6개월 만에 순매도 전환, 채권 1개월 만에 순투자 전환
+□ (보유규모) '25.11월말 현재 외국인은 상장주식 1,192.8조원(시가총액의 29.6%), 상장채권 321.6조원(상장잔액의 11.6%) 등 총 1,514.4조원의 상장증권을 보유
+※ 금융감독원은 한국거래소(체결기준)와 달리 결제기준으로 외국인 증권투자 동향 집계 중
+→ 주식 : '25.11월 순매도 전환, '25.10월 대비 보유잔액 감소(△56.1조원) / 채권 : '25.11월 순투자 전환, '25.10월 대비 보유잔액 증가(+14.6조원)
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>771</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>금융감독원은 대부업자의 준법의식 제고를 위해 「2025년 대부업자 대상 전국 순회 설명회」를 개최합니다</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>2025.12.11</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208073&amp;menuNo=200218&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>251210_(보도자료)_금융감독원은 대부업자의 준법의식 제고를 위해 「2025년 대부업자 대상 전국 순회 설명회」를 개최합니다.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=70abd98a28484a13a316bf563fbc6a19&amp;fileSn=1&amp;bbsId=), 251210_(보도자료)_금융감독원은 대부업자의 준법의식 제고를 위해 「2025년 대부업자 대상 전국 순회 설명회」를 개최합니다.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=70abd98a28484a13a316bf563fbc6a19&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>서민금융보호국</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>□ '25.12.11.~12.17. 기간 중 금융감독원은 지방자치단체, 한국대부금융협회와 함께 전국 대부업자의 준법의식 제고를 위한 「전국 순회 설명회」*를 개최하여 법규 위반 사례 및 신설 규제 내용을 안내할 예정
+* 금감원은 금년 상반기 중 대부업권 대상 업무설명회(3월) 및 지자체 대부업 담당자 대상 설명회(6월)를 개최한 바 있음
+ㅇ 금번 설명회는 '25.12.11. 대구를 시작으로 광주,부산,서울 順 전국 4개 주요 도시에서 지역별 대부업자(금융위,지자체 등록) 및 지자체 대부업 담당자가 참석한 가운데 진행될 예정이며,
+ㅇ 법규준수 관련 유의사항 및 금융당국의 민생침해적 범죄 근절 노력을 함께 전파함으로써, 대부업권의 경각심 제고는 물론, 지자체 대부업 담당자의 감독 역량 강화에도 기여할 것으로 기대
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>772</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>금융감독원,한국산업은행, 디지털 취약계층 금융교육앱 스마트투게더 확대 개편</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>2025.12.11</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208062&amp;menuNo=200218&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>251210_(보도자료) 금융감독원, 한국산업은행, 디지털 취약계층 금융교육앱 스마트투게더 확대 개편.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=3d1a7e5d433642278df313f7ef61ea7b&amp;fileSn=1&amp;bbsId=), 251210_(보도자료) 금융감독원, 한국산업은행, 디지털 취약계층 금융교육앱 스마트투게더 확대 개편.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=3d1a7e5d433642278df313f7ef61ea7b&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>금융교육국</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>◈ 기존 고령층 대상 '스마트시니어' 앱을 디지털 취약계층 전반을 아우르는 금융교육앱 '스마트투게더'로 확대,개편하였습니다.
+◈ 비대면 계좌개설,인증서 발급 등 실제 거래와 유사한 화면에서 연습할 수 있는 체험형 금융교육 기능과, 주니어 대상 캐릭터,퀘스트 기반 참여형 금융교육 기능을 새롭게 도입하였습니다.
+◈ 동 앱을 구글플레이스토어를 통해 무료로 배포하고 금융교육 시 적극 활용하는 한편, 추후 신규 기능 추가, 콘텐츠 확대 등 앱 기능 강화를 위해 지속적으로 관리하겠습니다.
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>773</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>종합금융투자사업자 지정 및 단기금융업 인가안 관련</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>2025년 12월 10일</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208040&amp;menuNo=200218&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>251210_(보도참고) 종합금융투자사업자 지정 및 단기금융업 인가안 관련.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=10ee77d68bc04377b74888ab4704697a&amp;fileSn=1&amp;bbsId=), 251210_(보도참고) 종합금융투자사업자 지정 및 단기금융업 인가안 관련.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=10ee77d68bc04377b74888ab4704697a&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>자본시장감독국</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>'25년 12월 10일 증권선물위원회(위원장: 권대영)는 하나증권㈜ 및 신한투자증권㈜에 대해 자기자본 4조원 이상의 종합금융투자사업자 지정 및 단기금융업 인가안을 심의하였습니다.
+증권선물위원회의 심의는 금융위원회 전 사전 심의적 성격이며, 추후 금융위원회 정례회의에서 심의?의결을 통해 최종 확정될 예정입니다.
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>774</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>이찬진 금융감독원장, 금융지주 CEO 간담회 개최</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>2025.12.10</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208035&amp;menuNo=200218&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>251210_(보도자료) 이찬진 금융감독원장, 금융지주 CEO 간담회 개최.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=e3775a94ca294d7a87e2f0bd7895180c&amp;fileSn=1&amp;bbsId=), 251210_(보도자료) 이찬진 금융감독원장, 금융지주 CEO 간담회 개최.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=e3775a94ca294d7a87e2f0bd7895180c&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>은행검사1국/은행감독국/은행검사2국/금융안정지원국/디지털금융총괄국/IT검사국/금융소비자보호총괄국/금융시장안정국</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>□ '25.12.10.(수) 이찬진 금융감독원장은 8개 금융지주 CEO 및 은행연합회장과 간담회를 개최하여,
+ㅇ 금융권의 당면 현안과 금융회사가 나아갈 방향에 대해 논의하고, 금융권의 건의사항을 청취하는 등 소통을 강화하였음
+&lt;금융지주 CEO 간담회 개요&gt;
+ㅁ 일시 : '25.12.10.(수) 15:00~16:00
+ㅁ 장소 : 은행연합회 14층 중회의실
+ㅁ 참석자 : (금융감독원) 이찬진 원장, 박충현 은행부문 부원장보, 은행검사1국장 / (금융지주) 8개 금융지주 CEO /(은행연합회) 조용병 은행연합회장
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>775</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>2025년 11월중 가계대출 동향(잠정) 및 「가계부채 점검회의」 개최</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>2025. 12. 10</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208029&amp;menuNo=200218&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>251210_(보도자료) 2025년 11월중 가계대출 동향(잠정) 및 「가계부채 점검회의」 개최.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=0a3f4a2ce55b48f98aa954b5ad35e3da&amp;fileSn=1&amp;bbsId=), 251210_(보도자료) 2025년 11월중 가계대출 동향(잠정) 및 「가계부채 점검회의」 개최.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=0a3f4a2ce55b48f98aa954b5ad35e3da&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>은행감독국/보험감독국/중소금융감독국/여신금융감독국</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>ㅁ
+’25.11월중 全 금융권 가계대출은 +4.1조원 증가하여 전월(+4.9조원) 및 전년 동월(+5.0조원) 대비 증가폭 축소
+*
+증감액(조원) : (
+‘25.5월)
++5.9 (6월)
++6.5 (7월)
++2.3 (8월)
++4.7 (9월)
++1.1 (10월)
++4.9 (11월p)
++4.1
+ㅁ
+지방 소재 주택을 담보로 하는 주택담보대출에 대해서는 현행과 동일하게 ’26년도 상반기(’26.1.1일~’26.6.30일) 중에도 2단계 스트레스 DSR 적용
+【관련 국정과제】 58. 금융안정과 생산적 금융을 위한 가계부채 관리
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>776</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>2025년도 금융감독원 적극행정 우수사례 선정</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>2025.12.10</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208008&amp;menuNo=200218&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>251209_(보도자료) 2025년도 금융감독원 적극행정 우수사례 선정.hwpx (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=16e2cb70cd774994be631f14c9c640d8&amp;fileSn=1&amp;bbsId=), 251209_(보도자료) 2025년도 금융감독원 적극행정 우수사례 선정.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=16e2cb70cd774994be631f14c9c640d8&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>기획조정국</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>ㅁ 금감원은 적극적으로 일하는 조직문화를 조성하여 국민이 체감할 수 있는 확실한 변화를 이끌어내기 위해 적극행정 우수사례 경진대회 개최
+ㅁ 총 63건의 사례가 접수되는 등 직원들의 열띤 참여 속에 외부전문가 중심으로 심층적 심사평가를 거쳐 우수부서 3개, 우수직원 11명 선정*
+* (최우수) 부서1개,직원1명, (우수) 부서2개,직원3명, (장려) 직원 7명
+☞ 효율적인 분쟁처리를 통해 제3보험 분쟁을 획기적으로 감축한 분쟁조정2국과 불공정거래 유형별 매매분석 기법을 개발한 김지은 선임검사역을 최우수 사례로 선정
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>777</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>금융과 경제생활 과목 수업 가이드를 위한 「겨울방학 금융과목 교사 연수」를 실시합니다!</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>2025.12.10</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208007&amp;menuNo=200218&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>251209_(보도자료) 금융과 경제생활 과목 수업 가이드를 위한 「겨울방학 금융과목 교사 연수」를 실시합니다!.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=85618ada2cbe4ad995b8137ba28b986f&amp;fileSn=1&amp;bbsId=), 251209_(보도자료) 금융과 경제생활 과목 수업 가이드를 위한 「겨울방학 금융과목 교사 연수」를 실시합니다!.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=85618ada2cbe4ad995b8137ba28b986f&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>금융교육국</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>□ 고등학교 선택과목으로 신설되어 내년부터 수업이 실시되는 '금융과 경제생활' 과목 관련 담당 교사(사회과) 수업역량 제고를 위해
+ㅇ '25년 여름방학에 이어 금번 겨울방학('26.1월)에도 다양한 수업사례 제시 등 수업에 직접 도움이 되는 내용 중심으로 「금융과목 교사 연수」 프로그램을 실시*
+* 매년 여름,겨울 방학기간을 활용하여 연 2회 금융과목 교사연수를 실시할 예정
+□ (연수기간) '26.1.14.(수)~1.16.(금) (3일, 총 18시간)
+□ (연수장소) 금융감독원 본원(서울특별시 영등포구 여의대로 38)
+□ (연수대상) 「금융과 경제생활」 과목 수업을 담당할 사회과 교사 또는 「금융과 경제생활」 과목에 관심 있는 교사(고등학교)
+□ (연수내용) 금융과목 관련 단원별 이론강의와 더불어 주제별(단원별) 수업지도안을 활용한 수업사례, 체험형 교수법 등으로 구성
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>778</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>금감원, 고위험 해외투자상품 투자자 보호를 위한 주요 증권사 CCO 및 준법감시인 간담회 개최</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>2025.12.9</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208000&amp;menuNo=200218&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>251209_(보도참고) 금감원, 고위험 해외투자상품 투자자 보호를 위한 주요 증권사 CCO 및 준법감시인 간담회 개최.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=c9b0f93311fe45fdae4d756a28615608&amp;fileSn=1&amp;bbsId=), 251209_(보도참고) 금감원, 고위험 해외투자상품 투자자 보호를 위한 주요 증권사 CCO 및 준법감시인 간담회 개최.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=c9b0f93311fe45fdae4d756a28615608&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>자본시장감독국</t>
+        </is>
+      </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>□ '25.12.9.(화), 금융감독원은 고위험 해외투자상품을 투자하는 개인투자자 보호를 위해 증권사 간담회를 개최하여
+ㅇ 증권사에 고위험 해외투자 상품 관련 금융소비자 보호 중심의 내부통제를 확립하고 리스크관리를 강화하도록 요청하는 한편,
+ㅇ 12.15.(월) 시행 예정인 해외 파생상품에 대한 사전교육 제도의 준비사항을 자체 점검하고 이행에 만전을 기할 것을 당부
+&lt;금융소비자보호 책임자(CCO) 및 준법감시인 간담회 개요&gt;
+ㅁ 일시 : '25.12.9.(화) 16:00~17:00
+ㅁ 장소 : 금융투자협회 중회의실
+ㅁ 참석자 : 금감원 자본시장감독국장, 금투협 자율규제본부장, 증권사 CCO 및 준법감시인
+- (금융감독원) 임권순 자본시장감독국장, 금융소비자보호총괄국 공정금융팀장 등
+- (금융투자협회) 정형규 자율규제본부장
+- (주요증권사) KB, NH, 메리츠, 미래, 삼성, 신한, 키움, 토스, 하나, 한국 등의 CCO 및 준법감시인
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>779</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>금융감독원 全 임직원은 금융소비자보호를 최우선 가치로 만들어 나가겠습니다.</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>2025.12.10</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=207997&amp;menuNo=200218&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>251209_(보도자료) 금융감독원 全 임직원은 금융소비자보호를 최우선 가치로 만들어 나가겠습니다.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=8916e0d3c84f43dc9f9c242bcee65bbd&amp;fileSn=1&amp;bbsId=), 251209_(보도자료) 금융감독원 全 임직원은 금융소비자보호를 최우선 가치로 만들어 나가겠습니다.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=8916e0d3c84f43dc9f9c242bcee65bbd&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>금융소비자보호총괄국</t>
+        </is>
+      </c>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>□ 금융감독원(원장 이찬진)은 국민 눈높이에 부응할 수 있는 금융소비자보호 문화를 조직 전체에 확산?내재화하기 위해 「금융소비자서비스헌장」('01.8월 제정) 개정* 사전예고 실시      * 2025.9.29. 개최된 全 임직원 결의대회 후속조치 (9.29. 보도자료 참고)   ㅇ 이번 개정안은 금감원 全 임직원이 금융소비자보호 DNA로 재무장하고 소비자보호를 최우선 가치로 삼아 업무를 수행하기 위한 자세 등을 제시  &lt;[참고] 금융감독원 現 금융소비자서비스헌장&gt; ◇ (제정) 금융소비자를 보호하고 서비스의 질을 제고하기 위하여 제정('01.8월) ◇ (주요내용) ①본문, ②서비스 이행지침, ③금융소비자께서 협조해 주실 사항으로 구성  ① (본문) 금융소비자 중심의 업무수행을 위해 금감원이 실천할 사항(4개 항목)을 선언하고, 이를 달성하기 위한 세부 지침으로 민원상담,분쟁조정 서비스 등과 관련한 서비스 이행지침을 규정  ② (서비스 이행지침) 민원상담 서비스, 금융분쟁조정 서비스, 잘못된 서비스에 대한 시정 및 보상조치 항목으로 구성되어 각 항목별 업무지침 제시   ③ (금융소비자께서 협조해 주실 사항) 헌장의 제정 목적 및 민원업무 등과 관련하여 금융소비자에 대한 협조 당부사항(3가지) 제시    ※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>780</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>2026년 1학기 대학 실용금융 강좌 개설지원을 신청하세요</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>2025.12.9</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=207987&amp;menuNo=200218&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>251208_(보도자료) 2026년 1학기 대학 실용금융 강좌 개설지원을 신청하세요.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=03503b8be6824d89abcb0a14d918fb74&amp;fileSn=1&amp;bbsId=), 251208_(보도자료) 2026년 1학기 대학 실용금융 강좌 개설지원을 신청하세요.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=03503b8be6824d89abcb0a14d918fb74&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>금융교육국</t>
+        </is>
+      </c>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>□ 우리원은 '16년부터 대학 ‘실용금융’ 강좌를 개설하는 대학에 금융교육교수, 교재 등을 제공*함으로써 대학생들이 대학 내 교육과정을 통해 실생활에 필수적인 금융역량을 갖추도록 지원 중
+* '25년 2학기 전국 65개 대학에 76개 강좌를 지원하여 약 4,748명이 수강 중
+ㅇ 교육 후 수강생의 금융이해력이 상승하고, 교수 및 강의 만족도도 높은 편*
+* '25.1학기 수강생 대상 설문조사 결과, 교육을 받은 후 금융이해도 높아짐(88%), 교육내용 유용성 만족도(91%) 및 강사 전문성 만족도(96%)로 답변
+□ 2026년 1학기 강좌 개설 희망 대학을 대상으로 '25.12.9(화)~12.31(수) 기간 중 '실용금융 강좌개설 지원' 신청 접수
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>781</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>불법 금융행위 우수 제보자 29명에게 포상금 1억 3,100만원 지급</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>2025.12.16</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208171&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>251216_(보도자료) 불법 금융행위 우수 제보자 29명에게 포상금 1억 3,100만원 지급.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=05a07b77b4984434821b836a75fdcb6c&amp;fileSn=1&amp;bbsId=), 251216_(보도자료) 불법 금융행위 우수 제보자 29명에게 포상금 1억 3,100만원 지급.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=05a07b77b4984434821b836a75fdcb6c&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>민생침해대응총괄국</t>
+        </is>
+      </c>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>□ 금융감독원은 불법사금융, 유사수신, 불법 금융투자 등 불법 금융행위에 대한 국민들의 신고를 적극 유도하기 위해 매년 「불법금융 파파라치」 포상*을 실시하고 있습니다.
+* 불법 금융신고를 활성화하기 위해 '16.6월 「불법금융 파파라치」 포상제도 도입 후, '24년말까지 총 16회에 걸쳐 7억 49백만원의 포상금을 지급
+ㅇ 금년부터는 불법사금융 등 민생침해 금융범죄에 대한 충분한 보상을 통해 신고 활성화를 유도할 수 있도록 인당 최대 포상금액을 증액*하고 포상 규모를 확대하였습니다.
+* 불법사금융 및 불법 금융투자 신고의 최대 포상금액을 2배 증액(1천만원 → 2천만원)하고 불법 금융행위 관련 내부 제보자에게는 기존 포상금액의 2배 지급(최대 4천만원) 등
+□ ①서민,취약계층 대상 불법 고금리 대출 및 불법 채권추심, ②고수익 사업 빙자 유사수신 행위, ③비상장주식 상장 임박을 미끼로 한 투자사기 등 불법 금융행위에 대한 구체적인 제보들이 있었으며,
+ㅇ 이 중 불법 금융행위 혐의자 검거 등 가시적인 수사결과가 있는 제보를 대상으로 「불법금융 파파라치」 포상을 실시하였습니다.
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>782</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>주요 분쟁사례로 알아보는 소비자 유의사항- 겨울철 자주 발생하는 보험 분쟁 (누수, 화재 등) 관련 -</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>2025.12.17</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208169&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>251216_(보도자료) 주요 분쟁사례로 알아보는 소비자 유의사항- 겨울철 자주 발생하는 보험 분쟁 (누수, 화재 등) 관련 -.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=ad19c0d4fcda443b8300c07dd6c7418d&amp;fileSn=1&amp;bbsId=), 251216_(보도자료) 주요 분쟁사례로 알아보는 소비자 유의사항- 겨울철 자주 발생하는 보험 분쟁 (누수, 화재 등) 관련 -.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=ad19c0d4fcda443b8300c07dd6c7418d&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>분쟁조정1국</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>◈ 겨울철에는 한파,강풍 등 기상환경의 악화로 인해 누수,화재,낙하 사고가 증가하며, 이와 관련된 보험금 분쟁도 반복적으로 발생
+☞ 소비자들이 보험을 통해 겨울철 사고에 보다 효과적으로 대비할 수 있도록 자주 발생하는 주요 분쟁 사례를 안내
+&lt;소비자 유의사항 주요 내용&gt;
+1-1. 전세주택의 누수 원인이 임차인이 관리할 수 없는 건물 구조상 하자 등인 경우 임차인의 보험으로는 보상받지 못할 수 있습니다.
+1-2. 임대인의 보험가입 시점에 따라 임대주택의 누수사고에 대한 보상여부가 달라질 수 있습니다.
+2. 담보대상 주택은 보험증권 기준이므로, 보험가입 이후 거주 장소가 달라지면 거주중이라도 보상받지 못할 수 있습니다.
+3. 건물 외벽의 크랙(갈라짐)이나 방수층 손상 등으로 인한 누수 손해는  보험으로 보상받지 못할 수 있습니다.
+4. 건물을 개조하거나 30일 이상 휴업한 사실 등을 보험회사에 알리지 않은 경우 화재발생시 보상을 받지 못할 수 있습니다.
+5. 강풍으로 이동식 입간판이 쓰러져도 보험증권상 보험목적물에 포함되어 있지 않으면 보상받지 못할 수 있습니다.
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>783</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>목표전환형 공모펀드 투자시 투자자 유의사항 안내</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>2025.12.17</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208168&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>251216_(보도자료) 목표전환형 공모펀드 투자시 투자자 유의사항 안내.hwpx (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=8be74df422044c4e93f34d822ef87e28&amp;fileSn=1&amp;bbsId=), 251216_(보도자료) 목표전환형 공모펀드 투자시 투자자 유의사항 안내.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=8be74df422044c4e93f34d822ef87e28&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>금융소비자보호조사국/자산운용감독국</t>
+        </is>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>□ 최근 국내외 증시의 동반 상승 기조가 지속됨에 따라 목표전환형 공모펀드에 대한 투자자들의 관심이 높아지면서 투자규모가 확대*되고 있습니다.
+* ('23년) 12개(2,289억원) → ('24년) 38개(1조 4,300억원) → ('25.9末)50개(2조 8,905억원)
+ㅇ 목표전환형 펀드는 상승장에서는 목표수익률 조기도달,수익 확정 후 쉽게 재투자할 수 있는 장점이 있는 반면, 시장의 변동에 따라 손실이 발생할 수 있는 '투자성 상품'으로서 투자자들의 유의가 필요합니다.
+□ 이에 금융감독원은 목표전환형 펀드에 관심을 가지고 있는 투자자들이 가입결정 전에 미리 유의하시면 좋은 사항들을 안내하고자 합니다.
+&lt;투자자 유의사항&gt;
+1. 관심 펀드의 목표수익률은 확정수익률이나 예상수익률이 아님을 숙지하세요.
+2. 관심 펀드의 투자대상자산 및 목표수익률 등 투자전략이 나의 투자성향과 맞는지 투자 전 반드시 확인하세요. (Know-Your-Product)
+3. 상승장,하락장에서의 목표전환형 펀드 손익구조를 이해하시고, 재투자시 판매수수료나 환매수수료 등 추가비용 발생을 꼭! 고려하세요.
+4. 나의 투자기간을 숙고하여 자금계획에 차질이 없도록 유의하세요.
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/PressReleases_Scraper/results.xlsx
+++ b/PressReleases_Scraper/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G784"/>
+  <dimension ref="A1:G785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32163,6 +32163,47 @@
         </is>
       </c>
     </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>784</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>이찬진 금융감독원장, 자산운용사 CEO 간담회 개최</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>2025.12.17</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>https://www.fss.or.kr/fss/bbs/B0000188/view.do?nttId=208195&amp;menuNo=200218&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>251216_(보도자료) 이찬진 금융감독원장, 자산운용사 CEO 간담회 개최.hwp (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=586fe96e425f4d65a2c0bf5cad206fb3&amp;fileSn=1&amp;bbsId=), 251216_(보도자료) 이찬진 금융감독원장, 자산운용사 CEO 간담회 개최.pdf (https://www.fss.or.kr/fss/cmmn/file/fileDown.do?menuNo=200218&amp;atchFileId=586fe96e425f4d65a2c0bf5cad206fb3&amp;fileSn=2&amp;bbsId=)</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>자산운용감독국</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>□ '25.12.17.(수) 이찬진 금융감독원장은 금융투자협회장 및 20개 자산운용사 CEO와 간담회를 개최하였음
+ㅇ 이번 간담회는 투자자보호 및 감독,검사 메시지 전달, 향후 자산운용시장 전망에 관한 논의, 업계 건의사항 청취 등 쌍방향 소통의 일환으로 실시한 것임
+&lt;자산운용사 CEO 간담회 개요&gt;
+ㅁ 일시 : '25.12.17.(수) 9:30~11:00
+ㅁ 장소 : 금융투자협회 대회의실(23F)
+ㅁ 참석자 : (금융감독원) 이찬진 원장, 서재완 금융투자 부원장보 / (자산운용업계) 금융투자협회장, 20개 자산운용사 CEO
+※ 자세한 내용은 첨부파일을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
